--- a/KubeTuner/kubetune1.0/src/models/randomforest/output/kubetune_recommended_memrequest.xlsx
+++ b/KubeTuner/kubetune1.0/src/models/randomforest/output/kubetune_recommended_memrequest.xlsx
@@ -492,10 +492,10 @@
         <v>0.203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="4">
@@ -511,7 +511,7 @@
         <v>0.211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="E4" t="n">
         <v>0.253</v>
@@ -568,10 +568,10 @@
         <v>0.203</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +587,10 @@
         <v>0.199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="E8" t="n">
-        <v>0.248</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="9">
@@ -606,7 +606,7 @@
         <v>0.219</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E9" t="n">
         <v>0.263</v>
@@ -625,10 +625,10 @@
         <v>0.207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E10" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +644,7 @@
         <v>0.219</v>
       </c>
       <c r="D11" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E11" t="n">
         <v>0.263</v>
@@ -663,7 +663,7 @@
         <v>0.258</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="E12" t="n">
         <v>0.31</v>
@@ -682,10 +682,10 @@
         <v>0.211</v>
       </c>
       <c r="D13" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E13" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="14">
@@ -701,10 +701,10 @@
         <v>0.211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E14" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="15">
@@ -720,10 +720,10 @@
         <v>0.211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E15" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="16">
@@ -739,10 +739,10 @@
         <v>0.324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="17">
@@ -758,7 +758,7 @@
         <v>0.219</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E17" t="n">
         <v>0.263</v>
@@ -777,7 +777,7 @@
         <v>0.254</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E18" t="n">
         <v>0.305</v>
@@ -796,7 +796,7 @@
         <v>0.223</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="E19" t="n">
         <v>0.268</v>
@@ -815,7 +815,7 @@
         <v>0.219</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E20" t="n">
         <v>0.263</v>
@@ -834,7 +834,7 @@
         <v>0.219</v>
       </c>
       <c r="D21" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E21" t="n">
         <v>0.263</v>
@@ -853,10 +853,10 @@
         <v>0.215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E22" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="23">
@@ -872,7 +872,7 @@
         <v>0.328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E23" t="n">
         <v>0.394</v>
@@ -891,10 +891,10 @@
         <v>0.215</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E24" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="25">
@@ -910,10 +910,10 @@
         <v>0.242</v>
       </c>
       <c r="D25" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="E25" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="26">
@@ -948,10 +948,10 @@
         <v>0.254</v>
       </c>
       <c r="D27" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E27" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="28">
@@ -967,7 +967,7 @@
         <v>0.23</v>
       </c>
       <c r="D28" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="E28" t="n">
         <v>0.276</v>
@@ -986,7 +986,7 @@
         <v>0.266</v>
       </c>
       <c r="D29" t="n">
-        <v>0.262</v>
+        <v>0.266</v>
       </c>
       <c r="E29" t="n">
         <v>0.319</v>
@@ -1005,10 +1005,10 @@
         <v>0.203</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E30" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="31">
@@ -1024,10 +1024,10 @@
         <v>0.195</v>
       </c>
       <c r="D31" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E31" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="32">
@@ -1043,10 +1043,10 @@
         <v>0.215</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
       <c r="E32" t="n">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="33">
@@ -1062,10 +1062,10 @@
         <v>0.621</v>
       </c>
       <c r="D33" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
       <c r="E33" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="34">
@@ -1081,7 +1081,7 @@
         <v>0.629</v>
       </c>
       <c r="D34" t="n">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="E34" t="n">
         <v>0.755</v>
@@ -1138,10 +1138,10 @@
         <v>0.195</v>
       </c>
       <c r="D37" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E37" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="38">
@@ -1157,7 +1157,7 @@
         <v>0.207</v>
       </c>
       <c r="D38" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="E38" t="n">
         <v>0.248</v>
@@ -1176,10 +1176,10 @@
         <v>0.199</v>
       </c>
       <c r="D39" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E39" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="40">
@@ -1214,10 +1214,10 @@
         <v>0.203</v>
       </c>
       <c r="D41" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E41" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="42">
@@ -1233,10 +1233,10 @@
         <v>0.203</v>
       </c>
       <c r="D42" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E42" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="43">
@@ -1252,10 +1252,10 @@
         <v>0.215</v>
       </c>
       <c r="D43" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E43" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="44">
@@ -1290,10 +1290,10 @@
         <v>0.223</v>
       </c>
       <c r="D45" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="E45" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="46">
@@ -1309,7 +1309,7 @@
         <v>0.227</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E46" t="n">
         <v>0.272</v>
@@ -1328,7 +1328,7 @@
         <v>0.219</v>
       </c>
       <c r="D47" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E47" t="n">
         <v>0.263</v>
@@ -1347,7 +1347,7 @@
         <v>0.219</v>
       </c>
       <c r="D48" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E48" t="n">
         <v>0.263</v>
@@ -1366,10 +1366,10 @@
         <v>0.215</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E49" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="50">
@@ -1385,7 +1385,7 @@
         <v>0.223</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E50" t="n">
         <v>0.268</v>
@@ -1404,7 +1404,7 @@
         <v>0.223</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E51" t="n">
         <v>0.268</v>
@@ -1423,7 +1423,7 @@
         <v>0.219</v>
       </c>
       <c r="D52" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E52" t="n">
         <v>0.263</v>
@@ -1442,7 +1442,7 @@
         <v>0.223</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E53" t="n">
         <v>0.268</v>
@@ -1461,7 +1461,7 @@
         <v>0.227</v>
       </c>
       <c r="D54" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E54" t="n">
         <v>0.272</v>
@@ -1480,10 +1480,10 @@
         <v>0.203</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="E55" t="n">
-        <v>0.263</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="56">
@@ -1613,10 +1613,10 @@
         <v>0.207</v>
       </c>
       <c r="D62" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E62" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="63">
@@ -1670,7 +1670,7 @@
         <v>0.227</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E65" t="n">
         <v>0.272</v>
@@ -1784,7 +1784,7 @@
         <v>0.223</v>
       </c>
       <c r="D71" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E71" t="n">
         <v>0.268</v>
@@ -1822,10 +1822,10 @@
         <v>0.211</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E73" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="74">
@@ -1841,10 +1841,10 @@
         <v>0.211</v>
       </c>
       <c r="D74" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E74" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="75">
@@ -1879,7 +1879,7 @@
         <v>0.23</v>
       </c>
       <c r="D76" t="n">
-        <v>0.219</v>
+        <v>0.229</v>
       </c>
       <c r="E76" t="n">
         <v>0.276</v>
@@ -1898,7 +1898,7 @@
         <v>0.223</v>
       </c>
       <c r="D77" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E77" t="n">
         <v>0.268</v>
@@ -1974,10 +1974,10 @@
         <v>0.203</v>
       </c>
       <c r="D81" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E81" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="82">
@@ -2088,7 +2088,7 @@
         <v>0.227</v>
       </c>
       <c r="D87" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E87" t="n">
         <v>0.272</v>
@@ -2202,7 +2202,7 @@
         <v>0.223</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E93" t="n">
         <v>0.268</v>
@@ -2240,7 +2240,7 @@
         <v>0.223</v>
       </c>
       <c r="D95" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E95" t="n">
         <v>0.268</v>
@@ -2259,7 +2259,7 @@
         <v>0.227</v>
       </c>
       <c r="D96" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E96" t="n">
         <v>0.272</v>
@@ -2297,10 +2297,10 @@
         <v>0.207</v>
       </c>
       <c r="D98" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E98" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="99">
@@ -2335,7 +2335,7 @@
         <v>0.227</v>
       </c>
       <c r="D100" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E100" t="n">
         <v>0.272</v>
@@ -2392,7 +2392,7 @@
         <v>0.223</v>
       </c>
       <c r="D103" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E103" t="n">
         <v>0.268</v>
@@ -2411,10 +2411,10 @@
         <v>0.211</v>
       </c>
       <c r="D104" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E104" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="105">
@@ -2449,10 +2449,10 @@
         <v>0.207</v>
       </c>
       <c r="D106" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E106" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="107">
@@ -2468,7 +2468,7 @@
         <v>0.223</v>
       </c>
       <c r="D107" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E107" t="n">
         <v>0.268</v>
@@ -2544,7 +2544,7 @@
         <v>0.223</v>
       </c>
       <c r="D111" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="E111" t="n">
         <v>0.268</v>
@@ -2563,10 +2563,10 @@
         <v>0.199</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219</v>
+        <v>0.206</v>
       </c>
       <c r="E112" t="n">
-        <v>0.263</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="113">
@@ -2582,10 +2582,10 @@
         <v>0.215</v>
       </c>
       <c r="D113" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E113" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="114">
@@ -2601,7 +2601,7 @@
         <v>0.219</v>
       </c>
       <c r="D114" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E114" t="n">
         <v>0.263</v>
@@ -2639,7 +2639,7 @@
         <v>0.227</v>
       </c>
       <c r="D116" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E116" t="n">
         <v>0.272</v>
@@ -2715,7 +2715,7 @@
         <v>0.219</v>
       </c>
       <c r="D120" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E120" t="n">
         <v>0.263</v>
@@ -2734,10 +2734,10 @@
         <v>0.215</v>
       </c>
       <c r="D121" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E121" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="122">
@@ -2753,7 +2753,7 @@
         <v>0.215</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207</v>
+        <v>0.215</v>
       </c>
       <c r="E122" t="n">
         <v>0.258</v>
@@ -2772,7 +2772,7 @@
         <v>0.219</v>
       </c>
       <c r="D123" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="E123" t="n">
         <v>0.263</v>
@@ -2829,7 +2829,7 @@
         <v>0.219</v>
       </c>
       <c r="D126" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E126" t="n">
         <v>0.263</v>
@@ -2848,10 +2848,10 @@
         <v>0.219</v>
       </c>
       <c r="D127" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E127" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="128">
@@ -2867,10 +2867,10 @@
         <v>0.219</v>
       </c>
       <c r="D128" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E128" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="129">
@@ -2905,7 +2905,7 @@
         <v>0.227</v>
       </c>
       <c r="D130" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E130" t="n">
         <v>0.272</v>
@@ -2924,7 +2924,7 @@
         <v>0.227</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206</v>
+        <v>0.226</v>
       </c>
       <c r="E131" t="n">
         <v>0.272</v>
@@ -2943,7 +2943,7 @@
         <v>0.219</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="E132" t="n">
         <v>0.263</v>
@@ -2962,7 +2962,7 @@
         <v>0.223</v>
       </c>
       <c r="D133" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E133" t="n">
         <v>0.268</v>
@@ -2981,10 +2981,10 @@
         <v>0.215</v>
       </c>
       <c r="D134" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E134" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="135">
@@ -3000,7 +3000,7 @@
         <v>0.223</v>
       </c>
       <c r="D135" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="E135" t="n">
         <v>0.268</v>
@@ -3019,7 +3019,7 @@
         <v>0.219</v>
       </c>
       <c r="D136" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E136" t="n">
         <v>0.263</v>
@@ -3038,7 +3038,7 @@
         <v>4.355</v>
       </c>
       <c r="D137" t="n">
-        <v>4.355</v>
+        <v>4.312</v>
       </c>
       <c r="E137" t="n">
         <v>5.226</v>
@@ -3076,10 +3076,10 @@
         <v>0.203</v>
       </c>
       <c r="D139" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E139" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="140">
@@ -3095,7 +3095,7 @@
         <v>0.211</v>
       </c>
       <c r="D140" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="E140" t="n">
         <v>0.253</v>
@@ -3114,10 +3114,10 @@
         <v>0.203</v>
       </c>
       <c r="D141" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E141" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="142">
@@ -3152,10 +3152,10 @@
         <v>0.203</v>
       </c>
       <c r="D143" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E143" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="144">
@@ -3171,10 +3171,10 @@
         <v>0.199</v>
       </c>
       <c r="D144" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="E144" t="n">
-        <v>0.248</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="145">
@@ -3190,7 +3190,7 @@
         <v>0.219</v>
       </c>
       <c r="D145" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E145" t="n">
         <v>0.263</v>
@@ -3209,10 +3209,10 @@
         <v>0.207</v>
       </c>
       <c r="D146" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E146" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="147">
@@ -3228,7 +3228,7 @@
         <v>0.219</v>
       </c>
       <c r="D147" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E147" t="n">
         <v>0.263</v>
@@ -3247,7 +3247,7 @@
         <v>0.258</v>
       </c>
       <c r="D148" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="E148" t="n">
         <v>0.31</v>
@@ -3266,10 +3266,10 @@
         <v>0.211</v>
       </c>
       <c r="D149" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E149" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="150">
@@ -3285,10 +3285,10 @@
         <v>0.211</v>
       </c>
       <c r="D150" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E150" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="151">
@@ -3304,10 +3304,10 @@
         <v>0.211</v>
       </c>
       <c r="D151" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E151" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="152">
@@ -3323,10 +3323,10 @@
         <v>0.324</v>
       </c>
       <c r="D152" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="E152" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="153">
@@ -3342,7 +3342,7 @@
         <v>0.219</v>
       </c>
       <c r="D153" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E153" t="n">
         <v>0.263</v>
@@ -3361,7 +3361,7 @@
         <v>0.254</v>
       </c>
       <c r="D154" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E154" t="n">
         <v>0.305</v>
@@ -3380,7 +3380,7 @@
         <v>0.223</v>
       </c>
       <c r="D155" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="E155" t="n">
         <v>0.268</v>
@@ -3399,7 +3399,7 @@
         <v>0.219</v>
       </c>
       <c r="D156" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E156" t="n">
         <v>0.263</v>
@@ -3418,7 +3418,7 @@
         <v>0.328</v>
       </c>
       <c r="D157" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E157" t="n">
         <v>0.394</v>
@@ -3437,10 +3437,10 @@
         <v>0.215</v>
       </c>
       <c r="D158" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E158" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="159">
@@ -3456,7 +3456,7 @@
         <v>0.328</v>
       </c>
       <c r="D159" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E159" t="n">
         <v>0.394</v>
@@ -3475,10 +3475,10 @@
         <v>0.215</v>
       </c>
       <c r="D160" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E160" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="161">
@@ -3494,10 +3494,10 @@
         <v>0.242</v>
       </c>
       <c r="D161" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="E161" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="162">
@@ -3532,10 +3532,10 @@
         <v>0.254</v>
       </c>
       <c r="D163" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E163" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="164">
@@ -3551,7 +3551,7 @@
         <v>0.23</v>
       </c>
       <c r="D164" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="E164" t="n">
         <v>0.276</v>
@@ -3570,7 +3570,7 @@
         <v>0.273</v>
       </c>
       <c r="D165" t="n">
-        <v>0.262</v>
+        <v>0.272</v>
       </c>
       <c r="E165" t="n">
         <v>0.328</v>
@@ -3589,10 +3589,10 @@
         <v>0.203</v>
       </c>
       <c r="D166" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E166" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="167">
@@ -3608,10 +3608,10 @@
         <v>0.195</v>
       </c>
       <c r="D167" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E167" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="168">
@@ -3627,10 +3627,10 @@
         <v>0.215</v>
       </c>
       <c r="D168" t="n">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
       <c r="E168" t="n">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="169">
@@ -3646,10 +3646,10 @@
         <v>0.621</v>
       </c>
       <c r="D169" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
       <c r="E169" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="170">
@@ -3665,7 +3665,7 @@
         <v>0.629</v>
       </c>
       <c r="D170" t="n">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="E170" t="n">
         <v>0.755</v>
@@ -3722,10 +3722,10 @@
         <v>0.199</v>
       </c>
       <c r="D173" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E173" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="174">
@@ -3741,7 +3741,7 @@
         <v>0.207</v>
       </c>
       <c r="D174" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="E174" t="n">
         <v>0.248</v>
@@ -3760,10 +3760,10 @@
         <v>0.199</v>
       </c>
       <c r="D175" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E175" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="176">
@@ -3798,10 +3798,10 @@
         <v>0.203</v>
       </c>
       <c r="D177" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E177" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="178">
@@ -3817,7 +3817,7 @@
         <v>62.09</v>
       </c>
       <c r="D178" t="n">
-        <v>62.09</v>
+        <v>37.001</v>
       </c>
       <c r="E178" t="n">
         <v>74.508</v>
@@ -3836,7 +3836,7 @@
         <v>33.359</v>
       </c>
       <c r="D179" t="n">
-        <v>33.359</v>
+        <v>24.763</v>
       </c>
       <c r="E179" t="n">
         <v>40.031</v>
@@ -3855,10 +3855,10 @@
         <v>0.203</v>
       </c>
       <c r="D180" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E180" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="181">
@@ -3874,10 +3874,10 @@
         <v>0.215</v>
       </c>
       <c r="D181" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E181" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="182">
@@ -3912,10 +3912,10 @@
         <v>0.223</v>
       </c>
       <c r="D183" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="E183" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="184">
@@ -3931,7 +3931,7 @@
         <v>0.227</v>
       </c>
       <c r="D184" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E184" t="n">
         <v>0.272</v>
@@ -3950,7 +3950,7 @@
         <v>0.219</v>
       </c>
       <c r="D185" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E185" t="n">
         <v>0.263</v>
@@ -3969,7 +3969,7 @@
         <v>0.219</v>
       </c>
       <c r="D186" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E186" t="n">
         <v>0.263</v>
@@ -3988,10 +3988,10 @@
         <v>0.215</v>
       </c>
       <c r="D187" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E187" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="188">
@@ -4007,7 +4007,7 @@
         <v>0.223</v>
       </c>
       <c r="D188" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E188" t="n">
         <v>0.268</v>
@@ -4026,7 +4026,7 @@
         <v>0.223</v>
       </c>
       <c r="D189" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E189" t="n">
         <v>0.268</v>
@@ -4045,7 +4045,7 @@
         <v>0.219</v>
       </c>
       <c r="D190" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E190" t="n">
         <v>0.263</v>
@@ -4064,7 +4064,7 @@
         <v>0.223</v>
       </c>
       <c r="D191" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E191" t="n">
         <v>0.268</v>
@@ -4083,7 +4083,7 @@
         <v>0.227</v>
       </c>
       <c r="D192" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E192" t="n">
         <v>0.272</v>
@@ -4102,10 +4102,10 @@
         <v>0.203</v>
       </c>
       <c r="D193" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="E193" t="n">
-        <v>0.263</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="194">
@@ -4235,10 +4235,10 @@
         <v>0.207</v>
       </c>
       <c r="D200" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E200" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="201">
@@ -4292,7 +4292,7 @@
         <v>0.227</v>
       </c>
       <c r="D203" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E203" t="n">
         <v>0.272</v>
@@ -4406,7 +4406,7 @@
         <v>0.223</v>
       </c>
       <c r="D209" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E209" t="n">
         <v>0.268</v>
@@ -4444,10 +4444,10 @@
         <v>0.211</v>
       </c>
       <c r="D211" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E211" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="212">
@@ -4463,10 +4463,10 @@
         <v>0.211</v>
       </c>
       <c r="D212" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E212" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="213">
@@ -4501,7 +4501,7 @@
         <v>0.23</v>
       </c>
       <c r="D214" t="n">
-        <v>0.219</v>
+        <v>0.229</v>
       </c>
       <c r="E214" t="n">
         <v>0.276</v>
@@ -4520,7 +4520,7 @@
         <v>0.223</v>
       </c>
       <c r="D215" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E215" t="n">
         <v>0.268</v>
@@ -4596,10 +4596,10 @@
         <v>0.203</v>
       </c>
       <c r="D219" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E219" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="220">
@@ -4710,7 +4710,7 @@
         <v>0.227</v>
       </c>
       <c r="D225" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E225" t="n">
         <v>0.272</v>
@@ -4824,7 +4824,7 @@
         <v>0.223</v>
       </c>
       <c r="D231" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E231" t="n">
         <v>0.268</v>
@@ -4862,7 +4862,7 @@
         <v>0.223</v>
       </c>
       <c r="D233" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E233" t="n">
         <v>0.268</v>
@@ -4881,7 +4881,7 @@
         <v>0.227</v>
       </c>
       <c r="D234" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E234" t="n">
         <v>0.272</v>
@@ -4919,10 +4919,10 @@
         <v>0.207</v>
       </c>
       <c r="D236" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E236" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="237">
@@ -4957,7 +4957,7 @@
         <v>0.227</v>
       </c>
       <c r="D238" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E238" t="n">
         <v>0.272</v>
@@ -5014,7 +5014,7 @@
         <v>0.223</v>
       </c>
       <c r="D241" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E241" t="n">
         <v>0.268</v>
@@ -5033,10 +5033,10 @@
         <v>0.211</v>
       </c>
       <c r="D242" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E242" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="243">
@@ -5071,10 +5071,10 @@
         <v>0.207</v>
       </c>
       <c r="D244" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E244" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="245">
@@ -5090,7 +5090,7 @@
         <v>0.223</v>
       </c>
       <c r="D245" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E245" t="n">
         <v>0.268</v>
@@ -5166,7 +5166,7 @@
         <v>0.223</v>
       </c>
       <c r="D249" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="E249" t="n">
         <v>0.268</v>
@@ -5185,10 +5185,10 @@
         <v>0.215</v>
       </c>
       <c r="D250" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E250" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="251">
@@ -5204,7 +5204,7 @@
         <v>0.219</v>
       </c>
       <c r="D251" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E251" t="n">
         <v>0.263</v>
@@ -5223,10 +5223,10 @@
         <v>0.211</v>
       </c>
       <c r="D252" t="n">
-        <v>0.219</v>
+        <v>0.214</v>
       </c>
       <c r="E252" t="n">
-        <v>0.263</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="253">
@@ -5261,7 +5261,7 @@
         <v>0.227</v>
       </c>
       <c r="D254" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E254" t="n">
         <v>0.272</v>
@@ -5337,7 +5337,7 @@
         <v>0.219</v>
       </c>
       <c r="D258" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E258" t="n">
         <v>0.263</v>
@@ -5356,10 +5356,10 @@
         <v>0.215</v>
       </c>
       <c r="D259" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E259" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="260">
@@ -5375,7 +5375,7 @@
         <v>0.215</v>
       </c>
       <c r="D260" t="n">
-        <v>0.207</v>
+        <v>0.215</v>
       </c>
       <c r="E260" t="n">
         <v>0.258</v>
@@ -5394,7 +5394,7 @@
         <v>0.219</v>
       </c>
       <c r="D261" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="E261" t="n">
         <v>0.263</v>
@@ -5451,7 +5451,7 @@
         <v>0.219</v>
       </c>
       <c r="D264" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E264" t="n">
         <v>0.263</v>
@@ -5470,10 +5470,10 @@
         <v>0.219</v>
       </c>
       <c r="D265" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E265" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="266">
@@ -5489,10 +5489,10 @@
         <v>0.219</v>
       </c>
       <c r="D266" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E266" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="267">
@@ -5527,7 +5527,7 @@
         <v>0.227</v>
       </c>
       <c r="D268" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E268" t="n">
         <v>0.272</v>
@@ -5546,7 +5546,7 @@
         <v>0.227</v>
       </c>
       <c r="D269" t="n">
-        <v>0.206</v>
+        <v>0.226</v>
       </c>
       <c r="E269" t="n">
         <v>0.272</v>
@@ -5565,7 +5565,7 @@
         <v>0.219</v>
       </c>
       <c r="D270" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="E270" t="n">
         <v>0.263</v>
@@ -5584,7 +5584,7 @@
         <v>0.223</v>
       </c>
       <c r="D271" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E271" t="n">
         <v>0.268</v>
@@ -5603,10 +5603,10 @@
         <v>0.215</v>
       </c>
       <c r="D272" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E272" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="273">
@@ -5622,7 +5622,7 @@
         <v>0.223</v>
       </c>
       <c r="D273" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="E273" t="n">
         <v>0.268</v>
@@ -5641,7 +5641,7 @@
         <v>0.219</v>
       </c>
       <c r="D274" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E274" t="n">
         <v>0.263</v>
@@ -5660,7 +5660,7 @@
         <v>4.047</v>
       </c>
       <c r="D275" t="n">
-        <v>4.047</v>
+        <v>3.921</v>
       </c>
       <c r="E275" t="n">
         <v>4.856</v>
@@ -5698,10 +5698,10 @@
         <v>0.203</v>
       </c>
       <c r="D277" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E277" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="278">
@@ -5717,7 +5717,7 @@
         <v>0.211</v>
       </c>
       <c r="D278" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="E278" t="n">
         <v>0.253</v>
@@ -5736,10 +5736,10 @@
         <v>0.203</v>
       </c>
       <c r="D279" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E279" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="280">
@@ -5774,10 +5774,10 @@
         <v>0.203</v>
       </c>
       <c r="D281" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E281" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="282">
@@ -5793,10 +5793,10 @@
         <v>0.199</v>
       </c>
       <c r="D282" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="E282" t="n">
-        <v>0.248</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="283">
@@ -5812,7 +5812,7 @@
         <v>0.219</v>
       </c>
       <c r="D283" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E283" t="n">
         <v>0.263</v>
@@ -5831,10 +5831,10 @@
         <v>0.207</v>
       </c>
       <c r="D284" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E284" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="285">
@@ -5850,7 +5850,7 @@
         <v>0.219</v>
       </c>
       <c r="D285" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E285" t="n">
         <v>0.263</v>
@@ -5869,7 +5869,7 @@
         <v>0.258</v>
       </c>
       <c r="D286" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="E286" t="n">
         <v>0.31</v>
@@ -5888,7 +5888,7 @@
         <v>0.754</v>
       </c>
       <c r="D287" t="n">
-        <v>0.754</v>
+        <v>0.701</v>
       </c>
       <c r="E287" t="n">
         <v>0.905</v>
@@ -5907,10 +5907,10 @@
         <v>0.211</v>
       </c>
       <c r="D288" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E288" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="289">
@@ -5926,10 +5926,10 @@
         <v>0.211</v>
       </c>
       <c r="D289" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E289" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="290">
@@ -5945,10 +5945,10 @@
         <v>0.324</v>
       </c>
       <c r="D290" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="E290" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="291">
@@ -5964,7 +5964,7 @@
         <v>0.219</v>
       </c>
       <c r="D291" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E291" t="n">
         <v>0.263</v>
@@ -5983,7 +5983,7 @@
         <v>0.254</v>
       </c>
       <c r="D292" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E292" t="n">
         <v>0.305</v>
@@ -6002,7 +6002,7 @@
         <v>0.223</v>
       </c>
       <c r="D293" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="E293" t="n">
         <v>0.268</v>
@@ -6021,7 +6021,7 @@
         <v>0.219</v>
       </c>
       <c r="D294" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E294" t="n">
         <v>0.263</v>
@@ -6040,10 +6040,10 @@
         <v>0.207</v>
       </c>
       <c r="D295" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E295" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="296">
@@ -6059,10 +6059,10 @@
         <v>0.215</v>
       </c>
       <c r="D296" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E296" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="297">
@@ -6078,7 +6078,7 @@
         <v>0.328</v>
       </c>
       <c r="D297" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E297" t="n">
         <v>0.394</v>
@@ -6097,10 +6097,10 @@
         <v>0.215</v>
       </c>
       <c r="D298" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E298" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="299">
@@ -6116,10 +6116,10 @@
         <v>0.242</v>
       </c>
       <c r="D299" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="E299" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="300">
@@ -6154,10 +6154,10 @@
         <v>0.254</v>
       </c>
       <c r="D301" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E301" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="302">
@@ -6173,7 +6173,7 @@
         <v>0.23</v>
       </c>
       <c r="D302" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="E302" t="n">
         <v>0.276</v>
@@ -6192,10 +6192,10 @@
         <v>0.195</v>
       </c>
       <c r="D303" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E303" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="304">
@@ -6211,10 +6211,10 @@
         <v>0.203</v>
       </c>
       <c r="D304" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E304" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="305">
@@ -6230,10 +6230,10 @@
         <v>0.195</v>
       </c>
       <c r="D305" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E305" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="306">
@@ -6249,10 +6249,10 @@
         <v>0.215</v>
       </c>
       <c r="D306" t="n">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
       <c r="E306" t="n">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="307">
@@ -6268,10 +6268,10 @@
         <v>0.621</v>
       </c>
       <c r="D307" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
       <c r="E307" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="308">
@@ -6287,7 +6287,7 @@
         <v>0.629</v>
       </c>
       <c r="D308" t="n">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="E308" t="n">
         <v>0.755</v>
@@ -6344,7 +6344,7 @@
         <v>0.266</v>
       </c>
       <c r="D311" t="n">
-        <v>0.262</v>
+        <v>0.266</v>
       </c>
       <c r="E311" t="n">
         <v>0.319</v>
@@ -6363,7 +6363,7 @@
         <v>0.207</v>
       </c>
       <c r="D312" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="E312" t="n">
         <v>0.248</v>
@@ -6382,10 +6382,10 @@
         <v>0.199</v>
       </c>
       <c r="D313" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E313" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="314">
@@ -6420,10 +6420,10 @@
         <v>0.203</v>
       </c>
       <c r="D315" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E315" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="316">
@@ -6439,10 +6439,10 @@
         <v>0.203</v>
       </c>
       <c r="D316" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E316" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="317">
@@ -6458,10 +6458,10 @@
         <v>0.215</v>
       </c>
       <c r="D317" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E317" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="318">
@@ -6496,10 +6496,10 @@
         <v>0.223</v>
       </c>
       <c r="D319" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="E319" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="320">
@@ -6515,7 +6515,7 @@
         <v>0.227</v>
       </c>
       <c r="D320" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E320" t="n">
         <v>0.272</v>
@@ -6534,7 +6534,7 @@
         <v>0.219</v>
       </c>
       <c r="D321" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E321" t="n">
         <v>0.263</v>
@@ -6553,7 +6553,7 @@
         <v>0.219</v>
       </c>
       <c r="D322" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E322" t="n">
         <v>0.263</v>
@@ -6572,10 +6572,10 @@
         <v>0.215</v>
       </c>
       <c r="D323" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E323" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="324">
@@ -6591,7 +6591,7 @@
         <v>0.223</v>
       </c>
       <c r="D324" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E324" t="n">
         <v>0.268</v>
@@ -6610,7 +6610,7 @@
         <v>0.223</v>
       </c>
       <c r="D325" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E325" t="n">
         <v>0.268</v>
@@ -6629,7 +6629,7 @@
         <v>0.219</v>
       </c>
       <c r="D326" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E326" t="n">
         <v>0.263</v>
@@ -6648,7 +6648,7 @@
         <v>0.223</v>
       </c>
       <c r="D327" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E327" t="n">
         <v>0.268</v>
@@ -6667,7 +6667,7 @@
         <v>0.227</v>
       </c>
       <c r="D328" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E328" t="n">
         <v>0.272</v>
@@ -6686,10 +6686,10 @@
         <v>0.203</v>
       </c>
       <c r="D329" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="E329" t="n">
-        <v>0.263</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="330">
@@ -6819,10 +6819,10 @@
         <v>0.207</v>
       </c>
       <c r="D336" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E336" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="337">
@@ -6876,7 +6876,7 @@
         <v>0.227</v>
       </c>
       <c r="D339" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E339" t="n">
         <v>0.272</v>
@@ -6990,7 +6990,7 @@
         <v>0.223</v>
       </c>
       <c r="D345" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E345" t="n">
         <v>0.268</v>
@@ -7028,10 +7028,10 @@
         <v>0.211</v>
       </c>
       <c r="D347" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E347" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="348">
@@ -7047,10 +7047,10 @@
         <v>0.211</v>
       </c>
       <c r="D348" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E348" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="349">
@@ -7085,7 +7085,7 @@
         <v>0.23</v>
       </c>
       <c r="D350" t="n">
-        <v>0.219</v>
+        <v>0.229</v>
       </c>
       <c r="E350" t="n">
         <v>0.276</v>
@@ -7104,7 +7104,7 @@
         <v>0.223</v>
       </c>
       <c r="D351" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E351" t="n">
         <v>0.268</v>
@@ -7180,10 +7180,10 @@
         <v>0.203</v>
       </c>
       <c r="D355" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E355" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="356">
@@ -7294,7 +7294,7 @@
         <v>0.227</v>
       </c>
       <c r="D361" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E361" t="n">
         <v>0.272</v>
@@ -7408,7 +7408,7 @@
         <v>0.223</v>
       </c>
       <c r="D367" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E367" t="n">
         <v>0.268</v>
@@ -7427,7 +7427,7 @@
         <v>0.223</v>
       </c>
       <c r="D368" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E368" t="n">
         <v>0.268</v>
@@ -7446,7 +7446,7 @@
         <v>0.227</v>
       </c>
       <c r="D369" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E369" t="n">
         <v>0.272</v>
@@ -7484,10 +7484,10 @@
         <v>0.207</v>
       </c>
       <c r="D371" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E371" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="372">
@@ -7522,7 +7522,7 @@
         <v>0.227</v>
       </c>
       <c r="D373" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E373" t="n">
         <v>0.272</v>
@@ -7579,7 +7579,7 @@
         <v>0.223</v>
       </c>
       <c r="D376" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E376" t="n">
         <v>0.268</v>
@@ -7598,10 +7598,10 @@
         <v>0.211</v>
       </c>
       <c r="D377" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E377" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="378">
@@ -7636,10 +7636,10 @@
         <v>0.207</v>
       </c>
       <c r="D379" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E379" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="380">
@@ -7655,7 +7655,7 @@
         <v>0.223</v>
       </c>
       <c r="D380" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E380" t="n">
         <v>0.268</v>
@@ -7731,7 +7731,7 @@
         <v>0.223</v>
       </c>
       <c r="D384" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="E384" t="n">
         <v>0.268</v>
@@ -7750,10 +7750,10 @@
         <v>0.199</v>
       </c>
       <c r="D385" t="n">
-        <v>0.219</v>
+        <v>0.206</v>
       </c>
       <c r="E385" t="n">
-        <v>0.263</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="386">
@@ -7769,10 +7769,10 @@
         <v>0.215</v>
       </c>
       <c r="D386" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E386" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="387">
@@ -7788,7 +7788,7 @@
         <v>0.219</v>
       </c>
       <c r="D387" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E387" t="n">
         <v>0.263</v>
@@ -7826,7 +7826,7 @@
         <v>0.227</v>
       </c>
       <c r="D389" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E389" t="n">
         <v>0.272</v>
@@ -7902,7 +7902,7 @@
         <v>0.219</v>
       </c>
       <c r="D393" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E393" t="n">
         <v>0.263</v>
@@ -7921,10 +7921,10 @@
         <v>0.215</v>
       </c>
       <c r="D394" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E394" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="395">
@@ -7940,7 +7940,7 @@
         <v>0.215</v>
       </c>
       <c r="D395" t="n">
-        <v>0.207</v>
+        <v>0.215</v>
       </c>
       <c r="E395" t="n">
         <v>0.258</v>
@@ -7959,7 +7959,7 @@
         <v>0.219</v>
       </c>
       <c r="D396" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="E396" t="n">
         <v>0.263</v>
@@ -8016,10 +8016,10 @@
         <v>0.203</v>
       </c>
       <c r="D399" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E399" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="400">
@@ -8035,7 +8035,7 @@
         <v>0.219</v>
       </c>
       <c r="D400" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E400" t="n">
         <v>0.263</v>
@@ -8054,10 +8054,10 @@
         <v>0.219</v>
       </c>
       <c r="D401" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E401" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="402">
@@ -8073,10 +8073,10 @@
         <v>0.219</v>
       </c>
       <c r="D402" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E402" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="403">
@@ -8111,7 +8111,7 @@
         <v>0.227</v>
       </c>
       <c r="D404" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E404" t="n">
         <v>0.272</v>
@@ -8130,7 +8130,7 @@
         <v>0.227</v>
       </c>
       <c r="D405" t="n">
-        <v>0.206</v>
+        <v>0.226</v>
       </c>
       <c r="E405" t="n">
         <v>0.272</v>
@@ -8149,7 +8149,7 @@
         <v>0.219</v>
       </c>
       <c r="D406" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="E406" t="n">
         <v>0.263</v>
@@ -8168,7 +8168,7 @@
         <v>0.223</v>
       </c>
       <c r="D407" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E407" t="n">
         <v>0.268</v>
@@ -8187,10 +8187,10 @@
         <v>0.215</v>
       </c>
       <c r="D408" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E408" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="409">
@@ -8206,7 +8206,7 @@
         <v>0.223</v>
       </c>
       <c r="D409" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="E409" t="n">
         <v>0.268</v>
@@ -8225,7 +8225,7 @@
         <v>0.219</v>
       </c>
       <c r="D410" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E410" t="n">
         <v>0.263</v>
@@ -8244,7 +8244,7 @@
         <v>6.105</v>
       </c>
       <c r="D411" t="n">
-        <v>6.105</v>
+        <v>4.459</v>
       </c>
       <c r="E411" t="n">
         <v>7.326</v>
@@ -8282,10 +8282,10 @@
         <v>0.203</v>
       </c>
       <c r="D413" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E413" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="414">
@@ -8301,7 +8301,7 @@
         <v>0.211</v>
       </c>
       <c r="D414" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="E414" t="n">
         <v>0.253</v>
@@ -8320,10 +8320,10 @@
         <v>0.203</v>
       </c>
       <c r="D415" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E415" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="416">
@@ -8358,10 +8358,10 @@
         <v>0.203</v>
       </c>
       <c r="D417" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E417" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="418">
@@ -8377,10 +8377,10 @@
         <v>0.199</v>
       </c>
       <c r="D418" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="E418" t="n">
-        <v>0.248</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="419">
@@ -8396,7 +8396,7 @@
         <v>0.219</v>
       </c>
       <c r="D419" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E419" t="n">
         <v>0.263</v>
@@ -8415,10 +8415,10 @@
         <v>0.207</v>
       </c>
       <c r="D420" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E420" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="421">
@@ -8434,7 +8434,7 @@
         <v>0.219</v>
       </c>
       <c r="D421" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E421" t="n">
         <v>0.263</v>
@@ -8453,7 +8453,7 @@
         <v>0.258</v>
       </c>
       <c r="D422" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="E422" t="n">
         <v>0.31</v>
@@ -8472,7 +8472,7 @@
         <v>0.754</v>
       </c>
       <c r="D423" t="n">
-        <v>0.754</v>
+        <v>0.701</v>
       </c>
       <c r="E423" t="n">
         <v>0.905</v>
@@ -8491,10 +8491,10 @@
         <v>0.211</v>
       </c>
       <c r="D424" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E424" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="425">
@@ -8510,10 +8510,10 @@
         <v>0.211</v>
       </c>
       <c r="D425" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E425" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="426">
@@ -8529,10 +8529,10 @@
         <v>0.324</v>
       </c>
       <c r="D426" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="E426" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="427">
@@ -8548,7 +8548,7 @@
         <v>0.219</v>
       </c>
       <c r="D427" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E427" t="n">
         <v>0.263</v>
@@ -8567,7 +8567,7 @@
         <v>0.254</v>
       </c>
       <c r="D428" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E428" t="n">
         <v>0.305</v>
@@ -8586,7 +8586,7 @@
         <v>0.223</v>
       </c>
       <c r="D429" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="E429" t="n">
         <v>0.268</v>
@@ -8605,7 +8605,7 @@
         <v>0.219</v>
       </c>
       <c r="D430" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E430" t="n">
         <v>0.263</v>
@@ -8624,10 +8624,10 @@
         <v>0.207</v>
       </c>
       <c r="D431" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E431" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="432">
@@ -8643,10 +8643,10 @@
         <v>0.215</v>
       </c>
       <c r="D432" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E432" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="433">
@@ -8662,7 +8662,7 @@
         <v>0.328</v>
       </c>
       <c r="D433" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E433" t="n">
         <v>0.394</v>
@@ -8681,10 +8681,10 @@
         <v>0.215</v>
       </c>
       <c r="D434" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E434" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="435">
@@ -8700,10 +8700,10 @@
         <v>0.242</v>
       </c>
       <c r="D435" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="E435" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="436">
@@ -8738,10 +8738,10 @@
         <v>0.254</v>
       </c>
       <c r="D437" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E437" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="438">
@@ -8757,7 +8757,7 @@
         <v>0.23</v>
       </c>
       <c r="D438" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="E438" t="n">
         <v>0.276</v>
@@ -8776,10 +8776,10 @@
         <v>0.195</v>
       </c>
       <c r="D439" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E439" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="440">
@@ -8795,10 +8795,10 @@
         <v>0.203</v>
       </c>
       <c r="D440" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E440" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="441">
@@ -8814,10 +8814,10 @@
         <v>0.195</v>
       </c>
       <c r="D441" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E441" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="442">
@@ -8833,10 +8833,10 @@
         <v>0.215</v>
       </c>
       <c r="D442" t="n">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
       <c r="E442" t="n">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="443">
@@ -8852,10 +8852,10 @@
         <v>0.621</v>
       </c>
       <c r="D443" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
       <c r="E443" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="444">
@@ -8871,7 +8871,7 @@
         <v>0.629</v>
       </c>
       <c r="D444" t="n">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="E444" t="n">
         <v>0.755</v>
@@ -8928,7 +8928,7 @@
         <v>0.266</v>
       </c>
       <c r="D447" t="n">
-        <v>0.262</v>
+        <v>0.266</v>
       </c>
       <c r="E447" t="n">
         <v>0.319</v>
@@ -8947,7 +8947,7 @@
         <v>0.207</v>
       </c>
       <c r="D448" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="E448" t="n">
         <v>0.248</v>
@@ -8966,10 +8966,10 @@
         <v>0.199</v>
       </c>
       <c r="D449" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E449" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="450">
@@ -9004,10 +9004,10 @@
         <v>0.203</v>
       </c>
       <c r="D451" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E451" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="452">
@@ -9023,10 +9023,10 @@
         <v>0.203</v>
       </c>
       <c r="D452" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E452" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="453">
@@ -9042,10 +9042,10 @@
         <v>0.215</v>
       </c>
       <c r="D453" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E453" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="454">
@@ -9080,10 +9080,10 @@
         <v>0.223</v>
       </c>
       <c r="D455" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="E455" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="456">
@@ -9099,7 +9099,7 @@
         <v>0.227</v>
       </c>
       <c r="D456" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E456" t="n">
         <v>0.272</v>
@@ -9118,7 +9118,7 @@
         <v>0.219</v>
       </c>
       <c r="D457" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E457" t="n">
         <v>0.263</v>
@@ -9137,7 +9137,7 @@
         <v>0.219</v>
       </c>
       <c r="D458" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E458" t="n">
         <v>0.263</v>
@@ -9156,10 +9156,10 @@
         <v>0.215</v>
       </c>
       <c r="D459" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E459" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="460">
@@ -9175,7 +9175,7 @@
         <v>0.223</v>
       </c>
       <c r="D460" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E460" t="n">
         <v>0.268</v>
@@ -9194,7 +9194,7 @@
         <v>0.223</v>
       </c>
       <c r="D461" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E461" t="n">
         <v>0.268</v>
@@ -9213,7 +9213,7 @@
         <v>0.219</v>
       </c>
       <c r="D462" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E462" t="n">
         <v>0.263</v>
@@ -9232,7 +9232,7 @@
         <v>0.223</v>
       </c>
       <c r="D463" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E463" t="n">
         <v>0.268</v>
@@ -9251,7 +9251,7 @@
         <v>0.227</v>
       </c>
       <c r="D464" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E464" t="n">
         <v>0.272</v>
@@ -9270,10 +9270,10 @@
         <v>0.203</v>
       </c>
       <c r="D465" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="E465" t="n">
-        <v>0.263</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="466">
@@ -9403,10 +9403,10 @@
         <v>0.207</v>
       </c>
       <c r="D472" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E472" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="473">
@@ -9460,7 +9460,7 @@
         <v>0.227</v>
       </c>
       <c r="D475" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E475" t="n">
         <v>0.272</v>
@@ -9574,7 +9574,7 @@
         <v>0.223</v>
       </c>
       <c r="D481" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E481" t="n">
         <v>0.268</v>
@@ -9612,10 +9612,10 @@
         <v>0.211</v>
       </c>
       <c r="D483" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E483" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="484">
@@ -9631,10 +9631,10 @@
         <v>0.211</v>
       </c>
       <c r="D484" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E484" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="485">
@@ -9669,7 +9669,7 @@
         <v>0.23</v>
       </c>
       <c r="D486" t="n">
-        <v>0.219</v>
+        <v>0.229</v>
       </c>
       <c r="E486" t="n">
         <v>0.276</v>
@@ -9688,7 +9688,7 @@
         <v>0.223</v>
       </c>
       <c r="D487" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E487" t="n">
         <v>0.268</v>
@@ -9764,10 +9764,10 @@
         <v>0.203</v>
       </c>
       <c r="D491" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E491" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="492">
@@ -9878,7 +9878,7 @@
         <v>0.227</v>
       </c>
       <c r="D497" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E497" t="n">
         <v>0.272</v>
@@ -9992,7 +9992,7 @@
         <v>0.223</v>
       </c>
       <c r="D503" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E503" t="n">
         <v>0.268</v>
@@ -10011,7 +10011,7 @@
         <v>0.223</v>
       </c>
       <c r="D504" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E504" t="n">
         <v>0.268</v>
@@ -10030,7 +10030,7 @@
         <v>0.227</v>
       </c>
       <c r="D505" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E505" t="n">
         <v>0.272</v>
@@ -10068,10 +10068,10 @@
         <v>0.207</v>
       </c>
       <c r="D507" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E507" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="508">
@@ -10106,7 +10106,7 @@
         <v>0.227</v>
       </c>
       <c r="D509" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E509" t="n">
         <v>0.272</v>
@@ -10163,7 +10163,7 @@
         <v>0.223</v>
       </c>
       <c r="D512" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E512" t="n">
         <v>0.268</v>
@@ -10182,10 +10182,10 @@
         <v>0.211</v>
       </c>
       <c r="D513" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E513" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="514">
@@ -10220,10 +10220,10 @@
         <v>0.207</v>
       </c>
       <c r="D515" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E515" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="516">
@@ -10239,7 +10239,7 @@
         <v>0.223</v>
       </c>
       <c r="D516" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E516" t="n">
         <v>0.268</v>
@@ -10315,7 +10315,7 @@
         <v>0.223</v>
       </c>
       <c r="D520" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="E520" t="n">
         <v>0.268</v>
@@ -10334,10 +10334,10 @@
         <v>0.199</v>
       </c>
       <c r="D521" t="n">
-        <v>0.219</v>
+        <v>0.206</v>
       </c>
       <c r="E521" t="n">
-        <v>0.263</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="522">
@@ -10353,10 +10353,10 @@
         <v>0.215</v>
       </c>
       <c r="D522" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E522" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="523">
@@ -10372,7 +10372,7 @@
         <v>0.219</v>
       </c>
       <c r="D523" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E523" t="n">
         <v>0.263</v>
@@ -10410,7 +10410,7 @@
         <v>0.227</v>
       </c>
       <c r="D525" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E525" t="n">
         <v>0.272</v>
@@ -10486,7 +10486,7 @@
         <v>0.219</v>
       </c>
       <c r="D529" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E529" t="n">
         <v>0.263</v>
@@ -10505,10 +10505,10 @@
         <v>0.215</v>
       </c>
       <c r="D530" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E530" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="531">
@@ -10524,7 +10524,7 @@
         <v>0.215</v>
       </c>
       <c r="D531" t="n">
-        <v>0.207</v>
+        <v>0.215</v>
       </c>
       <c r="E531" t="n">
         <v>0.258</v>
@@ -10543,7 +10543,7 @@
         <v>0.219</v>
       </c>
       <c r="D532" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="E532" t="n">
         <v>0.263</v>
@@ -10600,10 +10600,10 @@
         <v>0.203</v>
       </c>
       <c r="D535" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E535" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="536">
@@ -10619,7 +10619,7 @@
         <v>0.219</v>
       </c>
       <c r="D536" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E536" t="n">
         <v>0.263</v>
@@ -10638,10 +10638,10 @@
         <v>0.219</v>
       </c>
       <c r="D537" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E537" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="538">
@@ -10657,10 +10657,10 @@
         <v>0.219</v>
       </c>
       <c r="D538" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E538" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="539">
@@ -10695,7 +10695,7 @@
         <v>0.227</v>
       </c>
       <c r="D540" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E540" t="n">
         <v>0.272</v>
@@ -10714,7 +10714,7 @@
         <v>0.227</v>
       </c>
       <c r="D541" t="n">
-        <v>0.206</v>
+        <v>0.226</v>
       </c>
       <c r="E541" t="n">
         <v>0.272</v>
@@ -10733,7 +10733,7 @@
         <v>0.219</v>
       </c>
       <c r="D542" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="E542" t="n">
         <v>0.263</v>
@@ -10752,7 +10752,7 @@
         <v>0.223</v>
       </c>
       <c r="D543" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E543" t="n">
         <v>0.268</v>
@@ -10771,10 +10771,10 @@
         <v>0.215</v>
       </c>
       <c r="D544" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E544" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="545">
@@ -10790,7 +10790,7 @@
         <v>0.223</v>
       </c>
       <c r="D545" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="E545" t="n">
         <v>0.268</v>
@@ -10809,7 +10809,7 @@
         <v>0.219</v>
       </c>
       <c r="D546" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E546" t="n">
         <v>0.263</v>
@@ -10847,10 +10847,10 @@
         <v>0.203</v>
       </c>
       <c r="D548" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E548" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="549">
@@ -10866,7 +10866,7 @@
         <v>0.211</v>
       </c>
       <c r="D549" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="E549" t="n">
         <v>0.253</v>
@@ -10885,10 +10885,10 @@
         <v>0.203</v>
       </c>
       <c r="D550" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E550" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="551">
@@ -10923,10 +10923,10 @@
         <v>0.203</v>
       </c>
       <c r="D552" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E552" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="553">
@@ -10942,10 +10942,10 @@
         <v>0.199</v>
       </c>
       <c r="D553" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="E553" t="n">
-        <v>0.248</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="554">
@@ -10961,7 +10961,7 @@
         <v>0.219</v>
       </c>
       <c r="D554" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E554" t="n">
         <v>0.263</v>
@@ -10980,10 +10980,10 @@
         <v>0.207</v>
       </c>
       <c r="D555" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E555" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="556">
@@ -10999,7 +10999,7 @@
         <v>0.219</v>
       </c>
       <c r="D556" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E556" t="n">
         <v>0.263</v>
@@ -11018,7 +11018,7 @@
         <v>0.258</v>
       </c>
       <c r="D557" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="E557" t="n">
         <v>0.31</v>
@@ -11037,10 +11037,10 @@
         <v>0.211</v>
       </c>
       <c r="D558" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E558" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="559">
@@ -11056,10 +11056,10 @@
         <v>0.211</v>
       </c>
       <c r="D559" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E559" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="560">
@@ -11075,10 +11075,10 @@
         <v>0.211</v>
       </c>
       <c r="D560" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E560" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="561">
@@ -11094,10 +11094,10 @@
         <v>0.324</v>
       </c>
       <c r="D561" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="E561" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="562">
@@ -11113,7 +11113,7 @@
         <v>0.219</v>
       </c>
       <c r="D562" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E562" t="n">
         <v>0.263</v>
@@ -11132,7 +11132,7 @@
         <v>0.254</v>
       </c>
       <c r="D563" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E563" t="n">
         <v>0.305</v>
@@ -11151,7 +11151,7 @@
         <v>0.223</v>
       </c>
       <c r="D564" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="E564" t="n">
         <v>0.268</v>
@@ -11170,7 +11170,7 @@
         <v>0.219</v>
       </c>
       <c r="D565" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E565" t="n">
         <v>0.263</v>
@@ -11189,7 +11189,7 @@
         <v>0.328</v>
       </c>
       <c r="D566" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E566" t="n">
         <v>0.394</v>
@@ -11208,10 +11208,10 @@
         <v>0.215</v>
       </c>
       <c r="D567" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E567" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="568">
@@ -11227,7 +11227,7 @@
         <v>0.328</v>
       </c>
       <c r="D568" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E568" t="n">
         <v>0.394</v>
@@ -11246,10 +11246,10 @@
         <v>0.215</v>
       </c>
       <c r="D569" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E569" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="570">
@@ -11265,10 +11265,10 @@
         <v>0.242</v>
       </c>
       <c r="D570" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="E570" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="571">
@@ -11303,10 +11303,10 @@
         <v>0.254</v>
       </c>
       <c r="D572" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E572" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="573">
@@ -11322,7 +11322,7 @@
         <v>0.23</v>
       </c>
       <c r="D573" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="E573" t="n">
         <v>0.276</v>
@@ -11341,7 +11341,7 @@
         <v>0.273</v>
       </c>
       <c r="D574" t="n">
-        <v>0.262</v>
+        <v>0.272</v>
       </c>
       <c r="E574" t="n">
         <v>0.328</v>
@@ -11360,10 +11360,10 @@
         <v>0.203</v>
       </c>
       <c r="D575" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E575" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="576">
@@ -11379,10 +11379,10 @@
         <v>0.195</v>
       </c>
       <c r="D576" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E576" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="577">
@@ -11398,10 +11398,10 @@
         <v>0.215</v>
       </c>
       <c r="D577" t="n">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
       <c r="E577" t="n">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="578">
@@ -11417,10 +11417,10 @@
         <v>0.621</v>
       </c>
       <c r="D578" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
       <c r="E578" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="579">
@@ -11436,7 +11436,7 @@
         <v>0.629</v>
       </c>
       <c r="D579" t="n">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="E579" t="n">
         <v>0.755</v>
@@ -11493,10 +11493,10 @@
         <v>0.199</v>
       </c>
       <c r="D582" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E582" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="583">
@@ -11512,7 +11512,7 @@
         <v>0.207</v>
       </c>
       <c r="D583" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="E583" t="n">
         <v>0.248</v>
@@ -11531,10 +11531,10 @@
         <v>0.199</v>
       </c>
       <c r="D584" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E584" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="585">
@@ -11569,10 +11569,10 @@
         <v>0.203</v>
       </c>
       <c r="D586" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E586" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="587">
@@ -11588,10 +11588,10 @@
         <v>0.203</v>
       </c>
       <c r="D587" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E587" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="588">
@@ -11607,10 +11607,10 @@
         <v>0.215</v>
       </c>
       <c r="D588" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E588" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="589">
@@ -11645,10 +11645,10 @@
         <v>0.223</v>
       </c>
       <c r="D590" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="E590" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="591">
@@ -11664,7 +11664,7 @@
         <v>0.227</v>
       </c>
       <c r="D591" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E591" t="n">
         <v>0.272</v>
@@ -11683,7 +11683,7 @@
         <v>0.219</v>
       </c>
       <c r="D592" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E592" t="n">
         <v>0.263</v>
@@ -11702,7 +11702,7 @@
         <v>0.219</v>
       </c>
       <c r="D593" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E593" t="n">
         <v>0.263</v>
@@ -11721,10 +11721,10 @@
         <v>0.215</v>
       </c>
       <c r="D594" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E594" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="595">
@@ -11740,7 +11740,7 @@
         <v>0.223</v>
       </c>
       <c r="D595" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E595" t="n">
         <v>0.268</v>
@@ -11759,7 +11759,7 @@
         <v>0.223</v>
       </c>
       <c r="D596" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E596" t="n">
         <v>0.268</v>
@@ -11778,7 +11778,7 @@
         <v>0.219</v>
       </c>
       <c r="D597" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E597" t="n">
         <v>0.263</v>
@@ -11797,7 +11797,7 @@
         <v>0.223</v>
       </c>
       <c r="D598" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E598" t="n">
         <v>0.268</v>
@@ -11816,7 +11816,7 @@
         <v>0.227</v>
       </c>
       <c r="D599" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E599" t="n">
         <v>0.272</v>
@@ -11835,10 +11835,10 @@
         <v>0.203</v>
       </c>
       <c r="D600" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="E600" t="n">
-        <v>0.263</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="601">
@@ -11968,10 +11968,10 @@
         <v>0.207</v>
       </c>
       <c r="D607" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E607" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="608">
@@ -12025,7 +12025,7 @@
         <v>0.227</v>
       </c>
       <c r="D610" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E610" t="n">
         <v>0.272</v>
@@ -12139,7 +12139,7 @@
         <v>0.223</v>
       </c>
       <c r="D616" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E616" t="n">
         <v>0.268</v>
@@ -12177,10 +12177,10 @@
         <v>0.211</v>
       </c>
       <c r="D618" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E618" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="619">
@@ -12196,10 +12196,10 @@
         <v>0.211</v>
       </c>
       <c r="D619" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E619" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="620">
@@ -12234,7 +12234,7 @@
         <v>0.23</v>
       </c>
       <c r="D621" t="n">
-        <v>0.219</v>
+        <v>0.229</v>
       </c>
       <c r="E621" t="n">
         <v>0.276</v>
@@ -12253,7 +12253,7 @@
         <v>0.223</v>
       </c>
       <c r="D622" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E622" t="n">
         <v>0.268</v>
@@ -12329,10 +12329,10 @@
         <v>0.203</v>
       </c>
       <c r="D626" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E626" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="627">
@@ -12443,7 +12443,7 @@
         <v>0.227</v>
       </c>
       <c r="D632" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E632" t="n">
         <v>0.272</v>
@@ -12557,7 +12557,7 @@
         <v>0.223</v>
       </c>
       <c r="D638" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E638" t="n">
         <v>0.268</v>
@@ -12595,7 +12595,7 @@
         <v>0.223</v>
       </c>
       <c r="D640" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E640" t="n">
         <v>0.268</v>
@@ -12614,7 +12614,7 @@
         <v>0.227</v>
       </c>
       <c r="D641" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E641" t="n">
         <v>0.272</v>
@@ -12652,10 +12652,10 @@
         <v>0.207</v>
       </c>
       <c r="D643" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E643" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="644">
@@ -12690,7 +12690,7 @@
         <v>0.227</v>
       </c>
       <c r="D645" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E645" t="n">
         <v>0.272</v>
@@ -12747,7 +12747,7 @@
         <v>0.223</v>
       </c>
       <c r="D648" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E648" t="n">
         <v>0.268</v>
@@ -12766,10 +12766,10 @@
         <v>0.211</v>
       </c>
       <c r="D649" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E649" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="650">
@@ -12804,10 +12804,10 @@
         <v>0.207</v>
       </c>
       <c r="D651" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E651" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="652">
@@ -12823,7 +12823,7 @@
         <v>0.223</v>
       </c>
       <c r="D652" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E652" t="n">
         <v>0.268</v>
@@ -12899,7 +12899,7 @@
         <v>0.223</v>
       </c>
       <c r="D656" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="E656" t="n">
         <v>0.268</v>
@@ -12918,10 +12918,10 @@
         <v>0.215</v>
       </c>
       <c r="D657" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E657" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="658">
@@ -12937,7 +12937,7 @@
         <v>0.219</v>
       </c>
       <c r="D658" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E658" t="n">
         <v>0.263</v>
@@ -12956,10 +12956,10 @@
         <v>0.211</v>
       </c>
       <c r="D659" t="n">
-        <v>0.219</v>
+        <v>0.214</v>
       </c>
       <c r="E659" t="n">
-        <v>0.263</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="660">
@@ -12994,7 +12994,7 @@
         <v>0.227</v>
       </c>
       <c r="D661" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E661" t="n">
         <v>0.272</v>
@@ -13070,7 +13070,7 @@
         <v>0.219</v>
       </c>
       <c r="D665" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E665" t="n">
         <v>0.263</v>
@@ -13089,10 +13089,10 @@
         <v>0.215</v>
       </c>
       <c r="D666" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E666" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="667">
@@ -13108,7 +13108,7 @@
         <v>0.215</v>
       </c>
       <c r="D667" t="n">
-        <v>0.207</v>
+        <v>0.215</v>
       </c>
       <c r="E667" t="n">
         <v>0.258</v>
@@ -13127,7 +13127,7 @@
         <v>0.219</v>
       </c>
       <c r="D668" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="E668" t="n">
         <v>0.263</v>
@@ -13184,7 +13184,7 @@
         <v>0.219</v>
       </c>
       <c r="D671" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E671" t="n">
         <v>0.263</v>
@@ -13203,10 +13203,10 @@
         <v>0.219</v>
       </c>
       <c r="D672" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E672" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="673">
@@ -13222,10 +13222,10 @@
         <v>0.219</v>
       </c>
       <c r="D673" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E673" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="674">
@@ -13260,7 +13260,7 @@
         <v>0.227</v>
       </c>
       <c r="D675" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E675" t="n">
         <v>0.272</v>
@@ -13279,7 +13279,7 @@
         <v>0.227</v>
       </c>
       <c r="D676" t="n">
-        <v>0.206</v>
+        <v>0.226</v>
       </c>
       <c r="E676" t="n">
         <v>0.272</v>
@@ -13298,7 +13298,7 @@
         <v>0.219</v>
       </c>
       <c r="D677" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="E677" t="n">
         <v>0.263</v>
@@ -13317,7 +13317,7 @@
         <v>0.223</v>
       </c>
       <c r="D678" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E678" t="n">
         <v>0.268</v>
@@ -13336,10 +13336,10 @@
         <v>0.215</v>
       </c>
       <c r="D679" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E679" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="680">
@@ -13355,7 +13355,7 @@
         <v>0.223</v>
       </c>
       <c r="D680" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="E680" t="n">
         <v>0.268</v>
@@ -13374,7 +13374,7 @@
         <v>0.219</v>
       </c>
       <c r="D681" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E681" t="n">
         <v>0.263</v>
@@ -13393,10 +13393,10 @@
         <v>5.996</v>
       </c>
       <c r="D682" t="n">
-        <v>6.105</v>
+        <v>4.088</v>
       </c>
       <c r="E682" t="n">
-        <v>7.326</v>
+        <v>7.195</v>
       </c>
     </row>
     <row r="683">
@@ -13431,10 +13431,10 @@
         <v>0.203</v>
       </c>
       <c r="D684" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E684" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="685">
@@ -13450,7 +13450,7 @@
         <v>0.211</v>
       </c>
       <c r="D685" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="E685" t="n">
         <v>0.253</v>
@@ -13469,10 +13469,10 @@
         <v>0.203</v>
       </c>
       <c r="D686" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E686" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="687">
@@ -13507,10 +13507,10 @@
         <v>0.203</v>
       </c>
       <c r="D688" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E688" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="689">
@@ -13526,10 +13526,10 @@
         <v>0.199</v>
       </c>
       <c r="D689" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="E689" t="n">
-        <v>0.248</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="690">
@@ -13545,7 +13545,7 @@
         <v>0.219</v>
       </c>
       <c r="D690" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E690" t="n">
         <v>0.263</v>
@@ -13564,10 +13564,10 @@
         <v>0.207</v>
       </c>
       <c r="D691" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E691" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="692">
@@ -13583,7 +13583,7 @@
         <v>0.219</v>
       </c>
       <c r="D692" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E692" t="n">
         <v>0.263</v>
@@ -13602,7 +13602,7 @@
         <v>0.258</v>
       </c>
       <c r="D693" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="E693" t="n">
         <v>0.31</v>
@@ -13621,10 +13621,10 @@
         <v>0.211</v>
       </c>
       <c r="D694" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E694" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="695">
@@ -13640,10 +13640,10 @@
         <v>0.211</v>
       </c>
       <c r="D695" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E695" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="696">
@@ -13659,10 +13659,10 @@
         <v>0.211</v>
       </c>
       <c r="D696" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E696" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="697">
@@ -13678,10 +13678,10 @@
         <v>0.324</v>
       </c>
       <c r="D697" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="E697" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="698">
@@ -13697,7 +13697,7 @@
         <v>0.219</v>
       </c>
       <c r="D698" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E698" t="n">
         <v>0.263</v>
@@ -13716,7 +13716,7 @@
         <v>0.254</v>
       </c>
       <c r="D699" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E699" t="n">
         <v>0.305</v>
@@ -13735,7 +13735,7 @@
         <v>0.223</v>
       </c>
       <c r="D700" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="E700" t="n">
         <v>0.268</v>
@@ -13754,7 +13754,7 @@
         <v>0.219</v>
       </c>
       <c r="D701" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E701" t="n">
         <v>0.263</v>
@@ -13773,7 +13773,7 @@
         <v>0.328</v>
       </c>
       <c r="D702" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E702" t="n">
         <v>0.394</v>
@@ -13792,10 +13792,10 @@
         <v>0.215</v>
       </c>
       <c r="D703" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E703" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="704">
@@ -13811,7 +13811,7 @@
         <v>0.328</v>
       </c>
       <c r="D704" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E704" t="n">
         <v>0.394</v>
@@ -13830,10 +13830,10 @@
         <v>0.215</v>
       </c>
       <c r="D705" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E705" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="706">
@@ -13849,10 +13849,10 @@
         <v>0.242</v>
       </c>
       <c r="D706" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="E706" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="707">
@@ -13887,10 +13887,10 @@
         <v>0.254</v>
       </c>
       <c r="D708" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E708" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="709">
@@ -13906,7 +13906,7 @@
         <v>0.23</v>
       </c>
       <c r="D709" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="E709" t="n">
         <v>0.276</v>
@@ -13925,7 +13925,7 @@
         <v>0.273</v>
       </c>
       <c r="D710" t="n">
-        <v>0.262</v>
+        <v>0.272</v>
       </c>
       <c r="E710" t="n">
         <v>0.328</v>
@@ -13944,10 +13944,10 @@
         <v>0.203</v>
       </c>
       <c r="D711" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E711" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="712">
@@ -13963,10 +13963,10 @@
         <v>0.195</v>
       </c>
       <c r="D712" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E712" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="713">
@@ -13982,10 +13982,10 @@
         <v>0.215</v>
       </c>
       <c r="D713" t="n">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
       <c r="E713" t="n">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="714">
@@ -14001,10 +14001,10 @@
         <v>0.621</v>
       </c>
       <c r="D714" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
       <c r="E714" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="715">
@@ -14020,7 +14020,7 @@
         <v>0.629</v>
       </c>
       <c r="D715" t="n">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="E715" t="n">
         <v>0.755</v>
@@ -14077,10 +14077,10 @@
         <v>0.199</v>
       </c>
       <c r="D718" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E718" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="719">
@@ -14096,7 +14096,7 @@
         <v>0.207</v>
       </c>
       <c r="D719" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="E719" t="n">
         <v>0.248</v>
@@ -14115,10 +14115,10 @@
         <v>0.199</v>
       </c>
       <c r="D720" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E720" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="721">
@@ -14153,10 +14153,10 @@
         <v>0.203</v>
       </c>
       <c r="D722" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E722" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="723">
@@ -14172,10 +14172,10 @@
         <v>0.203</v>
       </c>
       <c r="D723" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E723" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="724">
@@ -14191,10 +14191,10 @@
         <v>0.215</v>
       </c>
       <c r="D724" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E724" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="725">
@@ -14229,10 +14229,10 @@
         <v>0.223</v>
       </c>
       <c r="D726" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="E726" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="727">
@@ -14248,7 +14248,7 @@
         <v>0.227</v>
       </c>
       <c r="D727" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E727" t="n">
         <v>0.272</v>
@@ -14267,7 +14267,7 @@
         <v>0.219</v>
       </c>
       <c r="D728" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E728" t="n">
         <v>0.263</v>
@@ -14286,7 +14286,7 @@
         <v>0.219</v>
       </c>
       <c r="D729" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E729" t="n">
         <v>0.263</v>
@@ -14305,10 +14305,10 @@
         <v>0.215</v>
       </c>
       <c r="D730" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E730" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="731">
@@ -14324,7 +14324,7 @@
         <v>0.223</v>
       </c>
       <c r="D731" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E731" t="n">
         <v>0.268</v>
@@ -14343,7 +14343,7 @@
         <v>0.223</v>
       </c>
       <c r="D732" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E732" t="n">
         <v>0.268</v>
@@ -14362,7 +14362,7 @@
         <v>0.219</v>
       </c>
       <c r="D733" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E733" t="n">
         <v>0.263</v>
@@ -14381,7 +14381,7 @@
         <v>0.223</v>
       </c>
       <c r="D734" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E734" t="n">
         <v>0.268</v>
@@ -14400,7 +14400,7 @@
         <v>0.227</v>
       </c>
       <c r="D735" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E735" t="n">
         <v>0.272</v>
@@ -14419,10 +14419,10 @@
         <v>0.203</v>
       </c>
       <c r="D736" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="E736" t="n">
-        <v>0.263</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="737">
@@ -14552,10 +14552,10 @@
         <v>0.207</v>
       </c>
       <c r="D743" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E743" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="744">
@@ -14609,7 +14609,7 @@
         <v>0.227</v>
       </c>
       <c r="D746" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E746" t="n">
         <v>0.272</v>
@@ -14723,7 +14723,7 @@
         <v>0.223</v>
       </c>
       <c r="D752" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E752" t="n">
         <v>0.268</v>
@@ -14761,10 +14761,10 @@
         <v>0.211</v>
       </c>
       <c r="D754" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E754" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="755">
@@ -14780,10 +14780,10 @@
         <v>0.211</v>
       </c>
       <c r="D755" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E755" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="756">
@@ -14818,7 +14818,7 @@
         <v>0.23</v>
       </c>
       <c r="D757" t="n">
-        <v>0.219</v>
+        <v>0.229</v>
       </c>
       <c r="E757" t="n">
         <v>0.276</v>
@@ -14837,7 +14837,7 @@
         <v>0.223</v>
       </c>
       <c r="D758" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E758" t="n">
         <v>0.268</v>
@@ -14913,10 +14913,10 @@
         <v>0.203</v>
       </c>
       <c r="D762" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E762" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="763">
@@ -15027,7 +15027,7 @@
         <v>0.227</v>
       </c>
       <c r="D768" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E768" t="n">
         <v>0.272</v>
@@ -15141,7 +15141,7 @@
         <v>0.223</v>
       </c>
       <c r="D774" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E774" t="n">
         <v>0.268</v>
@@ -15179,7 +15179,7 @@
         <v>0.223</v>
       </c>
       <c r="D776" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E776" t="n">
         <v>0.268</v>
@@ -15198,7 +15198,7 @@
         <v>0.227</v>
       </c>
       <c r="D777" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E777" t="n">
         <v>0.272</v>
@@ -15236,10 +15236,10 @@
         <v>0.207</v>
       </c>
       <c r="D779" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E779" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="780">
@@ -15274,7 +15274,7 @@
         <v>0.227</v>
       </c>
       <c r="D781" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E781" t="n">
         <v>0.272</v>
@@ -15331,7 +15331,7 @@
         <v>0.223</v>
       </c>
       <c r="D784" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E784" t="n">
         <v>0.268</v>
@@ -15350,10 +15350,10 @@
         <v>0.211</v>
       </c>
       <c r="D785" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E785" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="786">
@@ -15388,10 +15388,10 @@
         <v>0.207</v>
       </c>
       <c r="D787" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E787" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="788">
@@ -15407,7 +15407,7 @@
         <v>0.223</v>
       </c>
       <c r="D788" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E788" t="n">
         <v>0.268</v>
@@ -15483,7 +15483,7 @@
         <v>0.223</v>
       </c>
       <c r="D792" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="E792" t="n">
         <v>0.268</v>
@@ -15502,10 +15502,10 @@
         <v>0.215</v>
       </c>
       <c r="D793" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E793" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="794">
@@ -15521,7 +15521,7 @@
         <v>0.219</v>
       </c>
       <c r="D794" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E794" t="n">
         <v>0.263</v>
@@ -15540,10 +15540,10 @@
         <v>0.211</v>
       </c>
       <c r="D795" t="n">
-        <v>0.219</v>
+        <v>0.214</v>
       </c>
       <c r="E795" t="n">
-        <v>0.263</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="796">
@@ -15578,7 +15578,7 @@
         <v>0.227</v>
       </c>
       <c r="D797" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E797" t="n">
         <v>0.272</v>
@@ -15654,7 +15654,7 @@
         <v>0.219</v>
       </c>
       <c r="D801" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E801" t="n">
         <v>0.263</v>
@@ -15673,10 +15673,10 @@
         <v>0.215</v>
       </c>
       <c r="D802" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E802" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="803">
@@ -15692,7 +15692,7 @@
         <v>0.215</v>
       </c>
       <c r="D803" t="n">
-        <v>0.207</v>
+        <v>0.215</v>
       </c>
       <c r="E803" t="n">
         <v>0.258</v>
@@ -15711,7 +15711,7 @@
         <v>0.219</v>
       </c>
       <c r="D804" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="E804" t="n">
         <v>0.263</v>
@@ -15768,7 +15768,7 @@
         <v>0.219</v>
       </c>
       <c r="D807" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E807" t="n">
         <v>0.263</v>
@@ -15787,10 +15787,10 @@
         <v>0.219</v>
       </c>
       <c r="D808" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E808" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="809">
@@ -15806,10 +15806,10 @@
         <v>0.219</v>
       </c>
       <c r="D809" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E809" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="810">
@@ -15844,7 +15844,7 @@
         <v>0.227</v>
       </c>
       <c r="D811" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E811" t="n">
         <v>0.272</v>
@@ -15863,7 +15863,7 @@
         <v>0.227</v>
       </c>
       <c r="D812" t="n">
-        <v>0.206</v>
+        <v>0.226</v>
       </c>
       <c r="E812" t="n">
         <v>0.272</v>
@@ -15882,7 +15882,7 @@
         <v>0.219</v>
       </c>
       <c r="D813" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="E813" t="n">
         <v>0.263</v>
@@ -15901,7 +15901,7 @@
         <v>0.223</v>
       </c>
       <c r="D814" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E814" t="n">
         <v>0.268</v>
@@ -15920,10 +15920,10 @@
         <v>0.215</v>
       </c>
       <c r="D815" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E815" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="816">
@@ -15939,7 +15939,7 @@
         <v>0.223</v>
       </c>
       <c r="D816" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="E816" t="n">
         <v>0.268</v>
@@ -15958,7 +15958,7 @@
         <v>0.219</v>
       </c>
       <c r="D817" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E817" t="n">
         <v>0.263</v>
@@ -15977,10 +15977,10 @@
         <v>4.297</v>
       </c>
       <c r="D818" t="n">
-        <v>4.297</v>
+        <v>4.312</v>
       </c>
       <c r="E818" t="n">
-        <v>5.156</v>
+        <v>5.174</v>
       </c>
     </row>
     <row r="819">
@@ -16015,10 +16015,10 @@
         <v>0.203</v>
       </c>
       <c r="D820" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E820" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="821">
@@ -16034,7 +16034,7 @@
         <v>0.211</v>
       </c>
       <c r="D821" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="E821" t="n">
         <v>0.253</v>
@@ -16053,10 +16053,10 @@
         <v>0.203</v>
       </c>
       <c r="D822" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E822" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="823">
@@ -16091,10 +16091,10 @@
         <v>0.203</v>
       </c>
       <c r="D824" t="n">
-        <v>0.207</v>
+        <v>0.203</v>
       </c>
       <c r="E824" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="825">
@@ -16110,10 +16110,10 @@
         <v>0.199</v>
       </c>
       <c r="D825" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="E825" t="n">
-        <v>0.248</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="826">
@@ -16129,7 +16129,7 @@
         <v>0.219</v>
       </c>
       <c r="D826" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E826" t="n">
         <v>0.263</v>
@@ -16148,10 +16148,10 @@
         <v>0.207</v>
       </c>
       <c r="D827" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="E827" t="n">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="828">
@@ -16167,7 +16167,7 @@
         <v>0.219</v>
       </c>
       <c r="D828" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E828" t="n">
         <v>0.263</v>
@@ -16186,7 +16186,7 @@
         <v>0.258</v>
       </c>
       <c r="D829" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="E829" t="n">
         <v>0.31</v>
@@ -16205,10 +16205,10 @@
         <v>0.211</v>
       </c>
       <c r="D830" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E830" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="831">
@@ -16224,10 +16224,10 @@
         <v>0.211</v>
       </c>
       <c r="D831" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E831" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="832">
@@ -16243,10 +16243,10 @@
         <v>0.211</v>
       </c>
       <c r="D832" t="n">
-        <v>0.219</v>
+        <v>0.212</v>
       </c>
       <c r="E832" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="833">
@@ -16262,10 +16262,10 @@
         <v>0.324</v>
       </c>
       <c r="D833" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="E833" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="834">
@@ -16281,7 +16281,7 @@
         <v>0.219</v>
       </c>
       <c r="D834" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E834" t="n">
         <v>0.263</v>
@@ -16300,7 +16300,7 @@
         <v>0.254</v>
       </c>
       <c r="D835" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E835" t="n">
         <v>0.305</v>
@@ -16319,7 +16319,7 @@
         <v>0.223</v>
       </c>
       <c r="D836" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="E836" t="n">
         <v>0.268</v>
@@ -16338,7 +16338,7 @@
         <v>0.219</v>
       </c>
       <c r="D837" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E837" t="n">
         <v>0.263</v>
@@ -16357,7 +16357,7 @@
         <v>0.328</v>
       </c>
       <c r="D838" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E838" t="n">
         <v>0.394</v>
@@ -16376,10 +16376,10 @@
         <v>0.215</v>
       </c>
       <c r="D839" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E839" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="840">
@@ -16395,7 +16395,7 @@
         <v>0.328</v>
       </c>
       <c r="D840" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="E840" t="n">
         <v>0.394</v>
@@ -16414,10 +16414,10 @@
         <v>0.215</v>
       </c>
       <c r="D841" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E841" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="842">
@@ -16433,10 +16433,10 @@
         <v>0.242</v>
       </c>
       <c r="D842" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="E842" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="843">
@@ -16471,10 +16471,10 @@
         <v>0.254</v>
       </c>
       <c r="D844" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E844" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="845">
@@ -16490,7 +16490,7 @@
         <v>0.23</v>
       </c>
       <c r="D845" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="E845" t="n">
         <v>0.276</v>
@@ -16509,7 +16509,7 @@
         <v>0.273</v>
       </c>
       <c r="D846" t="n">
-        <v>0.262</v>
+        <v>0.272</v>
       </c>
       <c r="E846" t="n">
         <v>0.328</v>
@@ -16528,10 +16528,10 @@
         <v>0.203</v>
       </c>
       <c r="D847" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E847" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="848">
@@ -16547,10 +16547,10 @@
         <v>0.195</v>
       </c>
       <c r="D848" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="E848" t="n">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="849">
@@ -16566,10 +16566,10 @@
         <v>0.215</v>
       </c>
       <c r="D849" t="n">
-        <v>0.222</v>
+        <v>0.215</v>
       </c>
       <c r="E849" t="n">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="850">
@@ -16585,10 +16585,10 @@
         <v>0.621</v>
       </c>
       <c r="D850" t="n">
-        <v>0.621</v>
+        <v>0.622</v>
       </c>
       <c r="E850" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="851">
@@ -16604,7 +16604,7 @@
         <v>0.629</v>
       </c>
       <c r="D851" t="n">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="E851" t="n">
         <v>0.755</v>
@@ -16661,10 +16661,10 @@
         <v>0.199</v>
       </c>
       <c r="D854" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E854" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="855">
@@ -16680,7 +16680,7 @@
         <v>0.207</v>
       </c>
       <c r="D855" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="E855" t="n">
         <v>0.248</v>
@@ -16699,10 +16699,10 @@
         <v>0.199</v>
       </c>
       <c r="D856" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="E856" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="857">
@@ -16737,10 +16737,10 @@
         <v>0.203</v>
       </c>
       <c r="D858" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E858" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="859">
@@ -16756,10 +16756,10 @@
         <v>0.203</v>
       </c>
       <c r="D859" t="n">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="E859" t="n">
-        <v>0.247</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="860">
@@ -16775,10 +16775,10 @@
         <v>0.215</v>
       </c>
       <c r="D860" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E860" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="861">
@@ -16813,10 +16813,10 @@
         <v>0.223</v>
       </c>
       <c r="D862" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="E862" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="863">
@@ -16832,7 +16832,7 @@
         <v>0.227</v>
       </c>
       <c r="D863" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E863" t="n">
         <v>0.272</v>
@@ -16851,7 +16851,7 @@
         <v>0.219</v>
       </c>
       <c r="D864" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E864" t="n">
         <v>0.263</v>
@@ -16870,7 +16870,7 @@
         <v>0.219</v>
       </c>
       <c r="D865" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E865" t="n">
         <v>0.263</v>
@@ -16889,10 +16889,10 @@
         <v>0.215</v>
       </c>
       <c r="D866" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E866" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="867">
@@ -16908,7 +16908,7 @@
         <v>0.223</v>
       </c>
       <c r="D867" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E867" t="n">
         <v>0.268</v>
@@ -16927,7 +16927,7 @@
         <v>0.223</v>
       </c>
       <c r="D868" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="E868" t="n">
         <v>0.268</v>
@@ -16946,7 +16946,7 @@
         <v>0.219</v>
       </c>
       <c r="D869" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E869" t="n">
         <v>0.263</v>
@@ -16965,7 +16965,7 @@
         <v>0.223</v>
       </c>
       <c r="D870" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E870" t="n">
         <v>0.268</v>
@@ -16984,7 +16984,7 @@
         <v>0.227</v>
       </c>
       <c r="D871" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="E871" t="n">
         <v>0.272</v>
@@ -17003,10 +17003,10 @@
         <v>0.203</v>
       </c>
       <c r="D872" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="E872" t="n">
-        <v>0.263</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="873">
@@ -17136,10 +17136,10 @@
         <v>0.207</v>
       </c>
       <c r="D879" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E879" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="880">
@@ -17193,7 +17193,7 @@
         <v>0.227</v>
       </c>
       <c r="D882" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E882" t="n">
         <v>0.272</v>
@@ -17307,7 +17307,7 @@
         <v>0.223</v>
       </c>
       <c r="D888" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E888" t="n">
         <v>0.268</v>
@@ -17345,10 +17345,10 @@
         <v>0.211</v>
       </c>
       <c r="D890" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E890" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="891">
@@ -17364,10 +17364,10 @@
         <v>0.211</v>
       </c>
       <c r="D891" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E891" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="892">
@@ -17402,7 +17402,7 @@
         <v>0.23</v>
       </c>
       <c r="D893" t="n">
-        <v>0.219</v>
+        <v>0.229</v>
       </c>
       <c r="E893" t="n">
         <v>0.276</v>
@@ -17421,7 +17421,7 @@
         <v>0.223</v>
       </c>
       <c r="D894" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E894" t="n">
         <v>0.268</v>
@@ -17497,10 +17497,10 @@
         <v>0.203</v>
       </c>
       <c r="D898" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="E898" t="n">
-        <v>0.258</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="899">
@@ -17611,7 +17611,7 @@
         <v>0.227</v>
       </c>
       <c r="D904" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E904" t="n">
         <v>0.272</v>
@@ -17725,7 +17725,7 @@
         <v>0.223</v>
       </c>
       <c r="D910" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E910" t="n">
         <v>0.268</v>
@@ -17763,7 +17763,7 @@
         <v>0.223</v>
       </c>
       <c r="D912" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E912" t="n">
         <v>0.268</v>
@@ -17782,7 +17782,7 @@
         <v>0.227</v>
       </c>
       <c r="D913" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E913" t="n">
         <v>0.272</v>
@@ -17820,10 +17820,10 @@
         <v>0.207</v>
       </c>
       <c r="D915" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E915" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="916">
@@ -17858,7 +17858,7 @@
         <v>0.227</v>
       </c>
       <c r="D917" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="E917" t="n">
         <v>0.272</v>
@@ -17915,7 +17915,7 @@
         <v>0.223</v>
       </c>
       <c r="D920" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E920" t="n">
         <v>0.268</v>
@@ -17934,10 +17934,10 @@
         <v>0.211</v>
       </c>
       <c r="D921" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="E921" t="n">
-        <v>0.258</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="922">
@@ -17972,10 +17972,10 @@
         <v>0.207</v>
       </c>
       <c r="D923" t="n">
-        <v>0.215</v>
+        <v>0.207</v>
       </c>
       <c r="E923" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="924">
@@ -17991,7 +17991,7 @@
         <v>0.223</v>
       </c>
       <c r="D924" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E924" t="n">
         <v>0.268</v>
@@ -18067,7 +18067,7 @@
         <v>0.223</v>
       </c>
       <c r="D928" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="E928" t="n">
         <v>0.268</v>
@@ -18086,10 +18086,10 @@
         <v>0.215</v>
       </c>
       <c r="D929" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E929" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="930">
@@ -18105,7 +18105,7 @@
         <v>0.219</v>
       </c>
       <c r="D930" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E930" t="n">
         <v>0.263</v>
@@ -18124,10 +18124,10 @@
         <v>0.211</v>
       </c>
       <c r="D931" t="n">
-        <v>0.219</v>
+        <v>0.214</v>
       </c>
       <c r="E931" t="n">
-        <v>0.263</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="932">
@@ -18162,7 +18162,7 @@
         <v>0.227</v>
       </c>
       <c r="D933" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="E933" t="n">
         <v>0.272</v>
@@ -18238,7 +18238,7 @@
         <v>0.219</v>
       </c>
       <c r="D937" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="E937" t="n">
         <v>0.263</v>
@@ -18257,10 +18257,10 @@
         <v>0.215</v>
       </c>
       <c r="D938" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="E938" t="n">
-        <v>0.263</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="939">
@@ -18276,7 +18276,7 @@
         <v>0.215</v>
       </c>
       <c r="D939" t="n">
-        <v>0.207</v>
+        <v>0.215</v>
       </c>
       <c r="E939" t="n">
         <v>0.258</v>
@@ -18295,7 +18295,7 @@
         <v>0.219</v>
       </c>
       <c r="D940" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="E940" t="n">
         <v>0.263</v>
@@ -18352,7 +18352,7 @@
         <v>0.219</v>
       </c>
       <c r="D943" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="E943" t="n">
         <v>0.263</v>
@@ -18371,10 +18371,10 @@
         <v>0.219</v>
       </c>
       <c r="D944" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E944" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="945">
@@ -18390,10 +18390,10 @@
         <v>0.219</v>
       </c>
       <c r="D945" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="E945" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="946">
@@ -18428,7 +18428,7 @@
         <v>0.227</v>
       </c>
       <c r="D947" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E947" t="n">
         <v>0.272</v>
@@ -18447,7 +18447,7 @@
         <v>0.227</v>
       </c>
       <c r="D948" t="n">
-        <v>0.206</v>
+        <v>0.226</v>
       </c>
       <c r="E948" t="n">
         <v>0.272</v>
@@ -18466,7 +18466,7 @@
         <v>0.219</v>
       </c>
       <c r="D949" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="E949" t="n">
         <v>0.263</v>
@@ -18485,7 +18485,7 @@
         <v>0.223</v>
       </c>
       <c r="D950" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E950" t="n">
         <v>0.268</v>
@@ -18504,10 +18504,10 @@
         <v>0.215</v>
       </c>
       <c r="D951" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="E951" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="952">
@@ -18523,7 +18523,7 @@
         <v>0.223</v>
       </c>
       <c r="D952" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="E952" t="n">
         <v>0.268</v>
@@ -18542,7 +18542,7 @@
         <v>0.219</v>
       </c>
       <c r="D953" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="E953" t="n">
         <v>0.263</v>
@@ -18561,7 +18561,7 @@
         <v>4.324</v>
       </c>
       <c r="D954" t="n">
-        <v>4.324</v>
+        <v>4.312</v>
       </c>
       <c r="E954" t="n">
         <v>5.189</v>
